--- a/campanhas_lucro.xlsx
+++ b/campanhas_lucro.xlsx
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>245.89</v>
+        <v>153.85</v>
       </c>
       <c r="E2" t="n">
-        <v>63.61</v>
+        <v>13.76</v>
       </c>
       <c r="F2" t="n">
-        <v>167.4</v>
+        <v>70</v>
       </c>
       <c r="G2" t="n">
-        <v>2.63</v>
+        <v>5.09</v>
       </c>
       <c r="H2" t="n">
-        <v>103.79</v>
+        <v>56.24</v>
       </c>
       <c r="I2" t="n">
-        <v>343.3614154908083</v>
+        <v>928.0151295322523</v>
       </c>
     </row>
     <row r="3">
@@ -520,22 +520,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2037.82</v>
+        <v>158.32</v>
       </c>
       <c r="E3" t="n">
-        <v>678.84</v>
+        <v>28.03</v>
       </c>
       <c r="F3" t="n">
-        <v>921.3200000000001</v>
+        <v>60.16</v>
       </c>
       <c r="G3" t="n">
-        <v>1.36</v>
+        <v>2.15</v>
       </c>
       <c r="H3" t="n">
-        <v>242.48</v>
+        <v>32.13</v>
       </c>
       <c r="I3" t="n">
-        <v>2265.53816965229</v>
+        <v>600.6017498554635</v>
       </c>
     </row>
     <row r="4">
@@ -555,22 +555,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>114.1</v>
+        <v>136.21</v>
       </c>
       <c r="E4" t="n">
-        <v>58.05</v>
+        <v>30.95</v>
       </c>
       <c r="F4" t="n">
-        <v>81.59999999999999</v>
+        <v>61.4</v>
       </c>
       <c r="G4" t="n">
-        <v>1.41</v>
+        <v>1.98</v>
       </c>
       <c r="H4" t="n">
-        <v>23.55</v>
+        <v>30.45</v>
       </c>
       <c r="I4" t="n">
-        <v>136.2163101918156</v>
+        <v>555.365906725766</v>
       </c>
     </row>
     <row r="5">
@@ -590,22 +590,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>138.58</v>
+        <v>150</v>
       </c>
       <c r="E5" t="n">
-        <v>58.86</v>
+        <v>36.63</v>
       </c>
       <c r="F5" t="n">
-        <v>111.68</v>
+        <v>84.08</v>
       </c>
       <c r="G5" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
-        <v>52.82000000000001</v>
+        <v>47.45</v>
       </c>
       <c r="I5" t="n">
-        <v>188.1843950883948</v>
+        <v>803.1674145857996</v>
       </c>
     </row>
     <row r="6">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>792.55</v>
+        <v>157.04</v>
       </c>
       <c r="E6" t="n">
-        <v>255.17</v>
+        <v>17.67</v>
       </c>
       <c r="F6" t="n">
-        <v>446.16</v>
+        <v>28.32</v>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
-        <v>190.99</v>
+        <v>10.65</v>
       </c>
       <c r="I6" t="n">
-        <v>971.9128060948982</v>
+        <v>303.6413269829034</v>
       </c>
     </row>
     <row r="7">
@@ -660,19 +660,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>235.11</v>
+        <v>150</v>
       </c>
       <c r="E7" t="n">
-        <v>132.14</v>
+        <v>34.1</v>
       </c>
       <c r="F7" t="n">
-        <v>108.4</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>-23.73999999999998</v>
+        <v>-34.1</v>
       </c>
     </row>
     <row r="8">
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1296.99</v>
+        <v>154.43</v>
       </c>
       <c r="E8" t="n">
-        <v>433.45</v>
+        <v>12.89</v>
       </c>
       <c r="F8" t="n">
-        <v>546.6799999999999</v>
+        <v>51.6</v>
       </c>
       <c r="G8" t="n">
-        <v>1.26</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>113.23</v>
+        <v>38.71</v>
       </c>
       <c r="I8" t="n">
-        <v>1403.326721996572</v>
+        <v>687.2879687801117</v>
       </c>
     </row>
     <row r="9">
@@ -727,22 +727,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2185.08</v>
+        <v>209</v>
       </c>
       <c r="E9" t="n">
-        <v>594.86</v>
+        <v>24.08</v>
       </c>
       <c r="F9" t="n">
-        <v>1472.64</v>
+        <v>122.2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.48</v>
+        <v>5.07</v>
       </c>
       <c r="H9" t="n">
-        <v>877.7800000000001</v>
+        <v>98.12</v>
       </c>
       <c r="I9" t="n">
-        <v>3009.422028032775</v>
+        <v>1559.659361836853</v>
       </c>
     </row>
     <row r="10">
@@ -762,22 +762,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>133.54</v>
+        <v>150</v>
       </c>
       <c r="E10" t="n">
-        <v>50.88</v>
+        <v>27.94</v>
       </c>
       <c r="F10" t="n">
-        <v>104</v>
+        <v>20.8</v>
       </c>
       <c r="G10" t="n">
-        <v>2.04</v>
+        <v>0.74</v>
       </c>
       <c r="H10" t="n">
-        <v>53.12</v>
-      </c>
-      <c r="I10" t="n">
-        <v>183.4261315239593</v>
+        <v>-7.140000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -797,22 +794,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>286.75</v>
+        <v>157.49</v>
       </c>
       <c r="E11" t="n">
-        <v>81.73</v>
+        <v>19.61</v>
       </c>
       <c r="F11" t="n">
-        <v>258.12</v>
+        <v>20.32</v>
       </c>
       <c r="G11" t="n">
-        <v>3.16</v>
+        <v>1.04</v>
       </c>
       <c r="H11" t="n">
-        <v>176.39</v>
-      </c>
-      <c r="I11" t="n">
-        <v>452.4016328974244</v>
+        <v>0.7100000000000009</v>
       </c>
     </row>
     <row r="12">
@@ -832,22 +826,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>293.13</v>
+        <v>150</v>
       </c>
       <c r="E12" t="n">
-        <v>120.79</v>
+        <v>19.2</v>
       </c>
       <c r="F12" t="n">
-        <v>158.4</v>
+        <v>53.6</v>
       </c>
       <c r="G12" t="n">
-        <v>1.31</v>
+        <v>2.79</v>
       </c>
       <c r="H12" t="n">
-        <v>37.61</v>
+        <v>34.40000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>328.4503578052731</v>
+        <v>623.5291688461857</v>
       </c>
     </row>
     <row r="13">
@@ -867,22 +861,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>339.85</v>
+        <v>153.81</v>
       </c>
       <c r="E13" t="n">
-        <v>132.76</v>
+        <v>18.32</v>
       </c>
       <c r="F13" t="n">
-        <v>167.28</v>
+        <v>19.6</v>
       </c>
       <c r="G13" t="n">
-        <v>1.26</v>
+        <v>1.07</v>
       </c>
       <c r="H13" t="n">
-        <v>34.52000000000001</v>
+        <v>1.280000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>372.2684725189586</v>
+        <v>171.429690003579</v>
       </c>
     </row>
     <row r="14">
@@ -902,22 +896,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>100.58</v>
+        <v>111.02</v>
       </c>
       <c r="E14" t="n">
-        <v>59.68</v>
+        <v>24.83</v>
       </c>
       <c r="F14" t="n">
-        <v>70.8</v>
+        <v>13.2</v>
       </c>
       <c r="G14" t="n">
-        <v>1.19</v>
+        <v>0.53</v>
       </c>
       <c r="H14" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="I14" t="n">
-        <v>111.0230305449252</v>
+        <v>-11.63</v>
       </c>
     </row>
     <row r="15">
@@ -937,22 +928,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>239.23</v>
+        <v>156.03</v>
       </c>
       <c r="E15" t="n">
-        <v>73.27</v>
+        <v>24.6</v>
       </c>
       <c r="F15" t="n">
-        <v>285.52</v>
+        <v>38.4</v>
       </c>
       <c r="G15" t="n">
-        <v>3.9</v>
+        <v>1.56</v>
       </c>
       <c r="H15" t="n">
-        <v>212.25</v>
+        <v>13.8</v>
       </c>
       <c r="I15" t="n">
-        <v>438.5585281619045</v>
+        <v>345.9922828510861</v>
       </c>
     </row>
   </sheetData>

--- a/campanhas_lucro.xlsx
+++ b/campanhas_lucro.xlsx
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>153.85</v>
+        <v>1171.85</v>
       </c>
       <c r="E2" t="n">
-        <v>13.76</v>
+        <v>15.66</v>
       </c>
       <c r="F2" t="n">
-        <v>70</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>5.09</v>
+        <v>5.9</v>
       </c>
       <c r="H2" t="n">
-        <v>56.24</v>
+        <v>76.74000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>928.0151295322523</v>
+        <v>1290.911656375089</v>
       </c>
     </row>
     <row r="3">
@@ -520,22 +520,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>158.32</v>
+        <v>799.17</v>
       </c>
       <c r="E3" t="n">
-        <v>28.03</v>
+        <v>40</v>
       </c>
       <c r="F3" t="n">
-        <v>60.16</v>
+        <v>107.12</v>
       </c>
       <c r="G3" t="n">
-        <v>2.15</v>
+        <v>2.68</v>
       </c>
       <c r="H3" t="n">
-        <v>32.13</v>
+        <v>67.12</v>
       </c>
       <c r="I3" t="n">
-        <v>600.6017498554635</v>
+        <v>903.3062832407608</v>
       </c>
     </row>
     <row r="4">
@@ -555,22 +555,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>136.21</v>
+        <v>592.29</v>
       </c>
       <c r="E4" t="n">
-        <v>30.95</v>
+        <v>41.46</v>
       </c>
       <c r="F4" t="n">
-        <v>61.4</v>
+        <v>81</v>
       </c>
       <c r="G4" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="H4" t="n">
-        <v>30.45</v>
+        <v>39.54</v>
       </c>
       <c r="I4" t="n">
-        <v>555.365906725766</v>
+        <v>653.6360762714494</v>
       </c>
     </row>
     <row r="5">
@@ -590,22 +590,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>150</v>
+        <v>943.48</v>
       </c>
       <c r="E5" t="n">
-        <v>36.63</v>
+        <v>53.18</v>
       </c>
       <c r="F5" t="n">
-        <v>84.08</v>
+        <v>118.48</v>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="H5" t="n">
-        <v>47.45</v>
+        <v>65.30000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>803.1674145857996</v>
+        <v>1044.792563999131</v>
       </c>
     </row>
     <row r="6">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>157.04</v>
+        <v>292.19</v>
       </c>
       <c r="E6" t="n">
-        <v>17.67</v>
+        <v>23.46</v>
       </c>
       <c r="F6" t="n">
         <v>28.32</v>
       </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>1.21</v>
       </c>
       <c r="H6" t="n">
-        <v>10.65</v>
+        <v>4.859999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>303.6413269829034</v>
+        <v>299.7302612716045</v>
       </c>
     </row>
     <row r="7">
@@ -660,19 +660,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>150</v>
+        <v>127.5</v>
       </c>
       <c r="E7" t="n">
-        <v>34.1</v>
+        <v>46.58</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="H7" t="n">
-        <v>-34.1</v>
+        <v>-32.18</v>
       </c>
     </row>
     <row r="8">
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>154.43</v>
+        <v>820.6900000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>12.89</v>
+        <v>16.01</v>
       </c>
       <c r="F8" t="n">
-        <v>51.6</v>
+        <v>62.8</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>3.92</v>
       </c>
       <c r="H8" t="n">
-        <v>38.71</v>
+        <v>46.78999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>687.2879687801117</v>
+        <v>893.2844084153039</v>
       </c>
     </row>
     <row r="9">
@@ -727,22 +727,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>209</v>
+        <v>1938.46</v>
       </c>
       <c r="E9" t="n">
-        <v>24.08</v>
+        <v>59.73</v>
       </c>
       <c r="F9" t="n">
-        <v>122.2</v>
+        <v>205.56</v>
       </c>
       <c r="G9" t="n">
-        <v>5.07</v>
+        <v>3.44</v>
       </c>
       <c r="H9" t="n">
-        <v>98.12</v>
+        <v>145.83</v>
       </c>
       <c r="I9" t="n">
-        <v>1559.659361836853</v>
+        <v>2164.714382970801</v>
       </c>
     </row>
     <row r="10">
@@ -762,19 +762,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>150</v>
+        <v>439.45</v>
       </c>
       <c r="E10" t="n">
-        <v>27.94</v>
+        <v>40.33</v>
       </c>
       <c r="F10" t="n">
-        <v>20.8</v>
+        <v>127.48</v>
       </c>
       <c r="G10" t="n">
-        <v>0.74</v>
+        <v>3.16</v>
       </c>
       <c r="H10" t="n">
-        <v>-7.140000000000001</v>
+        <v>87.15000000000001</v>
+      </c>
+      <c r="I10" t="n">
+        <v>574.6627098395754</v>
       </c>
     </row>
     <row r="11">
@@ -794,19 +797,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>157.49</v>
+        <v>167.5</v>
       </c>
       <c r="E11" t="n">
-        <v>19.61</v>
+        <v>31.41</v>
       </c>
       <c r="F11" t="n">
-        <v>20.32</v>
+        <v>49.12</v>
       </c>
       <c r="G11" t="n">
-        <v>1.04</v>
+        <v>1.56</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7100000000000009</v>
+        <v>17.71</v>
+      </c>
+      <c r="I11" t="n">
+        <v>194.9769603127812</v>
       </c>
     </row>
     <row r="12">
@@ -826,22 +832,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>150</v>
+        <v>684.15</v>
       </c>
       <c r="E12" t="n">
-        <v>19.2</v>
+        <v>23.07</v>
       </c>
       <c r="F12" t="n">
-        <v>53.6</v>
+        <v>68</v>
       </c>
       <c r="G12" t="n">
-        <v>2.79</v>
+        <v>2.95</v>
       </c>
       <c r="H12" t="n">
-        <v>34.40000000000001</v>
+        <v>44.93</v>
       </c>
       <c r="I12" t="n">
-        <v>623.5291688461857</v>
+        <v>753.8586294101219</v>
       </c>
     </row>
     <row r="13">
@@ -861,22 +867,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>153.81</v>
+        <v>177.17</v>
       </c>
       <c r="E13" t="n">
-        <v>18.32</v>
+        <v>25.64</v>
       </c>
       <c r="F13" t="n">
-        <v>19.6</v>
+        <v>44.88</v>
       </c>
       <c r="G13" t="n">
-        <v>1.07</v>
+        <v>1.75</v>
       </c>
       <c r="H13" t="n">
-        <v>1.280000000000001</v>
+        <v>19.24</v>
       </c>
       <c r="I13" t="n">
-        <v>171.429690003579</v>
+        <v>207.0207462686567</v>
       </c>
     </row>
     <row r="14">
@@ -896,19 +902,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>111.02</v>
+        <v>100</v>
       </c>
       <c r="E14" t="n">
-        <v>24.83</v>
+        <v>34.29</v>
       </c>
       <c r="F14" t="n">
-        <v>13.2</v>
+        <v>55.8</v>
       </c>
       <c r="G14" t="n">
-        <v>0.53</v>
+        <v>1.63</v>
       </c>
       <c r="H14" t="n">
-        <v>-11.63</v>
+        <v>21.51</v>
+      </c>
+      <c r="I14" t="n">
+        <v>133.3726378502498</v>
       </c>
     </row>
     <row r="15">
@@ -928,22 +937,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>156.03</v>
+        <v>326.62</v>
       </c>
       <c r="E15" t="n">
-        <v>24.6</v>
+        <v>38.58</v>
       </c>
       <c r="F15" t="n">
-        <v>38.4</v>
+        <v>46.4</v>
       </c>
       <c r="G15" t="n">
-        <v>1.56</v>
+        <v>1.2</v>
       </c>
       <c r="H15" t="n">
-        <v>13.8</v>
+        <v>7.82</v>
       </c>
       <c r="I15" t="n">
-        <v>345.9922828510861</v>
+        <v>338.7526837744748</v>
       </c>
     </row>
   </sheetData>

--- a/campanhas_lucro.xlsx
+++ b/campanhas_lucro.xlsx
@@ -485,22 +485,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1171.85</v>
+        <v>1290.91</v>
       </c>
       <c r="E2" t="n">
-        <v>15.66</v>
+        <v>15.94</v>
       </c>
       <c r="F2" t="n">
         <v>92.40000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H2" t="n">
-        <v>76.74000000000001</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1290.911656375089</v>
+        <v>76.46000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -520,22 +517,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>799.17</v>
+        <v>903.3</v>
       </c>
       <c r="E3" t="n">
-        <v>40</v>
+        <v>42.35</v>
       </c>
       <c r="F3" t="n">
-        <v>107.12</v>
+        <v>114.32</v>
       </c>
       <c r="G3" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="H3" t="n">
-        <v>67.12</v>
-      </c>
-      <c r="I3" t="n">
-        <v>903.3062832407608</v>
+        <v>71.97</v>
       </c>
     </row>
     <row r="4">
@@ -555,22 +549,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>592.29</v>
+        <v>653.63</v>
       </c>
       <c r="E4" t="n">
-        <v>41.46</v>
+        <v>51.43</v>
       </c>
       <c r="F4" t="n">
         <v>81</v>
       </c>
       <c r="G4" t="n">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="H4" t="n">
-        <v>39.54</v>
-      </c>
-      <c r="I4" t="n">
-        <v>653.6360762714494</v>
+        <v>29.57</v>
       </c>
     </row>
     <row r="5">
@@ -590,22 +581,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>943.48</v>
+        <v>1044.79</v>
       </c>
       <c r="E5" t="n">
-        <v>53.18</v>
+        <v>56.65</v>
       </c>
       <c r="F5" t="n">
-        <v>118.48</v>
+        <v>154.68</v>
       </c>
       <c r="G5" t="n">
-        <v>2.23</v>
+        <v>2.73</v>
       </c>
       <c r="H5" t="n">
-        <v>65.30000000000001</v>
+        <v>98.03</v>
       </c>
       <c r="I5" t="n">
-        <v>1044.792563999131</v>
+        <v>1121.112386758226</v>
       </c>
     </row>
     <row r="6">
@@ -625,22 +616,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>292.19</v>
+        <v>299.73</v>
       </c>
       <c r="E6" t="n">
-        <v>23.46</v>
+        <v>23.95</v>
       </c>
       <c r="F6" t="n">
         <v>28.32</v>
       </c>
       <c r="G6" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="H6" t="n">
-        <v>4.859999999999999</v>
-      </c>
-      <c r="I6" t="n">
-        <v>299.7302612716045</v>
+        <v>4.370000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -663,16 +651,16 @@
         <v>127.5</v>
       </c>
       <c r="E7" t="n">
-        <v>46.58</v>
+        <v>51.49</v>
       </c>
       <c r="F7" t="n">
         <v>14.4</v>
       </c>
       <c r="G7" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="H7" t="n">
-        <v>-32.18</v>
+        <v>-37.09</v>
       </c>
     </row>
     <row r="8">
@@ -692,22 +680,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>820.6900000000001</v>
+        <v>893.28</v>
       </c>
       <c r="E8" t="n">
-        <v>16.01</v>
+        <v>16.32</v>
       </c>
       <c r="F8" t="n">
-        <v>62.8</v>
+        <v>98.8</v>
       </c>
       <c r="G8" t="n">
-        <v>3.92</v>
+        <v>6.05</v>
       </c>
       <c r="H8" t="n">
-        <v>46.78999999999999</v>
+        <v>82.47999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>893.2844084153039</v>
+        <v>957.4957549711153</v>
       </c>
     </row>
     <row r="9">
@@ -727,22 +715,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1938.46</v>
+        <v>2164.71</v>
       </c>
       <c r="E9" t="n">
-        <v>59.73</v>
+        <v>106.73</v>
       </c>
       <c r="F9" t="n">
-        <v>205.56</v>
+        <v>389.92</v>
       </c>
       <c r="G9" t="n">
-        <v>3.44</v>
+        <v>3.65</v>
       </c>
       <c r="H9" t="n">
-        <v>145.83</v>
+        <v>283.19</v>
       </c>
       <c r="I9" t="n">
-        <v>2164.714382970801</v>
+        <v>2385.190839600754</v>
       </c>
     </row>
     <row r="10">
@@ -762,22 +750,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>439.45</v>
+        <v>574.66</v>
       </c>
       <c r="E10" t="n">
-        <v>40.33</v>
+        <v>41.35</v>
       </c>
       <c r="F10" t="n">
         <v>127.48</v>
       </c>
       <c r="G10" t="n">
-        <v>3.16</v>
+        <v>3.08</v>
       </c>
       <c r="H10" t="n">
-        <v>87.15000000000001</v>
+        <v>86.13</v>
       </c>
       <c r="I10" t="n">
-        <v>574.6627098395754</v>
+        <v>641.7175045545849</v>
       </c>
     </row>
     <row r="11">
@@ -797,22 +785,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>167.5</v>
+        <v>194.97</v>
       </c>
       <c r="E11" t="n">
-        <v>31.41</v>
+        <v>34.34</v>
       </c>
       <c r="F11" t="n">
         <v>49.12</v>
       </c>
       <c r="G11" t="n">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="H11" t="n">
-        <v>17.71</v>
-      </c>
-      <c r="I11" t="n">
-        <v>194.9769603127812</v>
+        <v>14.77999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -832,22 +817,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>684.15</v>
+        <v>753.85</v>
       </c>
       <c r="E12" t="n">
-        <v>23.07</v>
+        <v>23.62</v>
       </c>
       <c r="F12" t="n">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="G12" t="n">
-        <v>2.95</v>
+        <v>4.91</v>
       </c>
       <c r="H12" t="n">
-        <v>44.93</v>
+        <v>92.38</v>
       </c>
       <c r="I12" t="n">
-        <v>753.8586294101219</v>
+        <v>825.7735141153205</v>
       </c>
     </row>
     <row r="13">
@@ -867,22 +852,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>177.17</v>
+        <v>207.02</v>
       </c>
       <c r="E13" t="n">
-        <v>25.64</v>
+        <v>28.26</v>
       </c>
       <c r="F13" t="n">
-        <v>44.88</v>
+        <v>59.28</v>
       </c>
       <c r="G13" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
-        <v>19.24</v>
-      </c>
-      <c r="I13" t="n">
-        <v>207.0207462686567</v>
+        <v>31.02</v>
       </c>
     </row>
     <row r="14">
@@ -902,22 +884,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>100</v>
+        <v>133.37</v>
       </c>
       <c r="E14" t="n">
-        <v>34.29</v>
+        <v>35.34</v>
       </c>
       <c r="F14" t="n">
         <v>55.8</v>
       </c>
       <c r="G14" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="H14" t="n">
-        <v>21.51</v>
-      </c>
-      <c r="I14" t="n">
-        <v>133.3726378502498</v>
+        <v>20.45999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -937,22 +916,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>326.62</v>
+        <v>338.75</v>
       </c>
       <c r="E15" t="n">
-        <v>38.58</v>
+        <v>42.44</v>
       </c>
       <c r="F15" t="n">
         <v>46.4</v>
       </c>
       <c r="G15" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="H15" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="I15" t="n">
-        <v>338.7526837744748</v>
+        <v>3.960000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/campanhas_lucro.xlsx
+++ b/campanhas_lucro.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,28 +476,38 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>120223099071640431</t>
+          <t>120227590767740431</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>🟡 [T]-[Conversão]-[Mx. Num.] -  Lançamentos</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1290.91</v>
+          <t>🟡 [T]-[Conversão]-[Mx. Val.] - Gatilhos</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>15.94</v>
+        <v>150</v>
       </c>
       <c r="F2" t="n">
-        <v>92.40000000000001</v>
+        <v>15.31</v>
       </c>
       <c r="G2" t="n">
-        <v>5.8</v>
+        <v>16</v>
       </c>
       <c r="H2" t="n">
-        <v>76.46000000000001</v>
+        <v>1.05</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6899999999999995</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -508,28 +518,38 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>120222533000150431</t>
+          <t>120227588920730431</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>🟡 [T]-[Conversão]-[Mx. Num.] -&gt; Reação</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>903.3</v>
+          <t>🧊 [T]-[Conversão]-[Mx. Val]-[Perfil] - Best ADS</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>42.35</v>
+        <v>150</v>
       </c>
       <c r="F3" t="n">
-        <v>114.32</v>
+        <v>15.82</v>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>71.97</v>
+        <v>0.63</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-5.82</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -540,28 +560,38 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>120221473064310431</t>
+          <t>120227372043910431</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>🟡 [T]-[Conversão]-[Mx. Num.] - Pascoa</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>653.63</v>
+          <t>🟡 [T]-[Conversão]-[Mx. Val.] - Como participar</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>51.43</v>
+        <v>150</v>
       </c>
       <c r="F4" t="n">
-        <v>81</v>
+        <v>15.76</v>
       </c>
       <c r="G4" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>29.57</v>
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-15.76</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -572,31 +602,38 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>120215736960620431</t>
+          <t>120227095176980431</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>🟡 [T]-[Conversão]-[Mx. Num.] - Chamadas Seguidores</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1044.79</v>
+          <t>🌎🟡 [T]-[Conversão]-[Mx. Val.] -Ganhadores 2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>56.65</v>
+        <v>150</v>
       </c>
       <c r="F5" t="n">
-        <v>154.68</v>
+        <v>12.36</v>
       </c>
       <c r="G5" t="n">
-        <v>2.73</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>98.03</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1121.112386758226</v>
+        <v>-12.36</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -607,28 +644,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>120215567870460431</t>
+          <t>120222533000150431</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>🟡 [T]-[Conversão]-[Mx. Num.] - Dia das Crianças - Cortes — 2</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>299.73</v>
+          <t>🟡 [T]-[Conversão]-[Mx. Num.] -&gt; Reação</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>23.95</v>
+        <v>375.3</v>
       </c>
       <c r="F6" t="n">
-        <v>28.32</v>
+        <v>10.16</v>
       </c>
       <c r="G6" t="n">
-        <v>1.18</v>
+        <v>16</v>
       </c>
       <c r="H6" t="n">
-        <v>4.370000000000001</v>
+        <v>1.57</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J6" t="n">
+        <v>407.310524007893</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -639,28 +689,38 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>120215039931450431</t>
+          <t>120221473064310431</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>🟡 [T]-[Conversão]-[Mx. val.] - Dia das Crianças - Cortes</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>127.5</v>
+          <t>🟡 [T]-[Conversão]-[Mx. Num.] - Pascoa</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>51.49</v>
+        <v>150</v>
       </c>
       <c r="F7" t="n">
-        <v>14.4</v>
+        <v>26.13</v>
       </c>
       <c r="G7" t="n">
-        <v>0.28</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
-        <v>-37.09</v>
+        <v>0.31</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-18.13</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -671,31 +731,38 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>120215038900720431</t>
+          <t>120215736960620431</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>🟡 [T]-[Conversão]-[Mx. Num.] - Dia das Crianças - Cortes</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>893.28</v>
+          <t>🟡 [T]-[Conversão]-[Mx. Num.] - Chamadas Seguidores</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>16.32</v>
+        <v>411.54</v>
       </c>
       <c r="F8" t="n">
-        <v>98.8</v>
+        <v>28.19</v>
       </c>
       <c r="G8" t="n">
-        <v>6.05</v>
+        <v>24</v>
       </c>
       <c r="H8" t="n">
-        <v>82.47999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="I8" t="n">
-        <v>957.4957549711153</v>
+        <v>-4.190000000000001</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -706,31 +773,41 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>120214808911760431</t>
+          <t>120215567870460431</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>🌎🟡 [T]-[Conversão]-[Mx. Num.] - Ganhadores</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>2164.71</v>
+          <t>🟡 [T]-[Conversão]-[Mx. Num.] - Dia das Crianças - Cortes — 2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
       </c>
       <c r="E9" t="n">
-        <v>106.73</v>
+        <v>785.55</v>
       </c>
       <c r="F9" t="n">
-        <v>389.92</v>
+        <v>8.81</v>
       </c>
       <c r="G9" t="n">
-        <v>3.65</v>
+        <v>32</v>
       </c>
       <c r="H9" t="n">
-        <v>283.19</v>
+        <v>3.63</v>
       </c>
       <c r="I9" t="n">
-        <v>2385.190839600754</v>
+        <v>23.19</v>
+      </c>
+      <c r="J9" t="n">
+        <v>912.6602828327121</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -741,31 +818,38 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>120214807605110431</t>
+          <t>120215039931450431</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>🟡 [T]-[Conversão]-[Mx. Num.] - Cortes</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>574.66</v>
+          <t>🟡 [T]-[Conversão]-[Mx. val.] - Dia das Crianças - Cortes</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
       </c>
       <c r="E10" t="n">
-        <v>41.35</v>
+        <v>212.35</v>
       </c>
       <c r="F10" t="n">
-        <v>127.48</v>
+        <v>15.78</v>
       </c>
       <c r="G10" t="n">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>86.13</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>641.7175045545849</v>
+        <v>-15.78</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -776,28 +860,38 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>120214350104200431</t>
+          <t>120215038900720431</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>🟡 [T]-[Conversão]-[Mx. Num.] - Dia das Crianças</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>194.97</v>
+          <t>🟡 [T]-[Conversão]-[Mx. Num.] - Dia das Crianças - Cortes</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
       </c>
       <c r="E11" t="n">
-        <v>34.34</v>
+        <v>150</v>
       </c>
       <c r="F11" t="n">
-        <v>49.12</v>
+        <v>8.77</v>
       </c>
       <c r="G11" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>14.77999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-8.77</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -808,63 +902,83 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>120214323043310431</t>
+          <t>120214808911760431</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>🟡 [T]-[Conversão]-[Mx. Num.] -  cartinha</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>753.85</v>
+          <t>🌎🟡 [T]-[Conversão]-[Mx. Num.] - Ganhadores</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
       </c>
       <c r="E12" t="n">
-        <v>23.62</v>
+        <v>3771.39</v>
       </c>
       <c r="F12" t="n">
-        <v>116</v>
+        <v>8.73</v>
       </c>
       <c r="G12" t="n">
-        <v>4.91</v>
+        <v>46</v>
       </c>
       <c r="H12" t="n">
-        <v>92.38</v>
+        <v>5.27</v>
       </c>
       <c r="I12" t="n">
-        <v>825.7735141153205</v>
+        <v>37.27</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3975.676340714755</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>act_303402486183447</t>
+          <t>act_790223756353632</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>120223669040530338</t>
+          <t>120214323043310431</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>🔥 [T]-[Conversão]-[Perfil] - Lançamentos</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>207.02</v>
+          <t>🟡 [T]-[Conversão]-[Mx. Num.] -  cartinha</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
       </c>
       <c r="E13" t="n">
-        <v>28.26</v>
+        <v>150</v>
       </c>
       <c r="F13" t="n">
-        <v>59.28</v>
+        <v>23.94</v>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>31.02</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-23.94</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -875,28 +989,38 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>120214509094010338</t>
+          <t>120227639640790338</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>🔥 [T]-[Conversão]-[Mx. Val]-[Perfil] - LTV</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>133.37</v>
+          <t>🔥 [T]-[Conversão]-[Mx. Val]-[Perfil] - Gatilhos</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
       </c>
       <c r="E14" t="n">
-        <v>35.34</v>
+        <v>429.26</v>
       </c>
       <c r="F14" t="n">
-        <v>55.8</v>
+        <v>13.36</v>
       </c>
       <c r="G14" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>20.45999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-13.36</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -907,28 +1031,170 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>120227628451420338</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>🔥 [T]-[Conversão]-[Perfil] - Lançamentos — 2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2439.51</v>
+      </c>
+      <c r="F15" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="G15" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="I15" t="n">
+        <v>62.89000000000001</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2784.226071037054</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>act_303402486183447</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>120227626914980338</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>🔥 [T]-[Conversão]-[Perfil] - Lançamentos</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2635.65</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="G16" t="n">
+        <v>68</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="I16" t="n">
+        <v>53.25</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2927.526781407586</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>act_303402486183447</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>120214509094010338</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>🔥 [T]-[Conversão]-[Mx. Val]-[Perfil] - LTV</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>150</v>
+      </c>
+      <c r="F17" t="n">
+        <v>26.13</v>
+      </c>
+      <c r="G17" t="n">
+        <v>8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-18.13</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>act_303402486183447</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>120214507411990338</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>🔥 [T]-[Conversão]-[Mx. Num]-[Perfil] - LTV</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>338.75</v>
-      </c>
-      <c r="E15" t="n">
-        <v>42.44</v>
-      </c>
-      <c r="F15" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.960000000000001</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>289.4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="G18" t="n">
+        <v>16</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-3.68</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/campanhas_lucro.xlsx
+++ b/campanhas_lucro.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,19 +490,19 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>15.31</v>
+        <v>23.36</v>
       </c>
       <c r="G2" t="n">
         <v>16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.05</v>
+        <v>0.68</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6899999999999995</v>
+        <v>-7.359999999999999</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -532,19 +532,19 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>15.82</v>
+        <v>24.91</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>0.63</v>
+        <v>0.4</v>
       </c>
       <c r="I3" t="n">
-        <v>-5.82</v>
+        <v>-14.91</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>15.76</v>
+        <v>27.65</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-15.76</v>
+        <v>-27.65</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -616,10 +616,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>12.36</v>
+        <v>22.5</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-12.36</v>
+        <v>-22.5</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -658,22 +658,19 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>375.3</v>
+        <v>172.08</v>
       </c>
       <c r="F6" t="n">
-        <v>10.16</v>
+        <v>38.84</v>
       </c>
       <c r="G6" t="n">
         <v>16</v>
       </c>
       <c r="H6" t="n">
-        <v>1.57</v>
+        <v>0.41</v>
       </c>
       <c r="I6" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J6" t="n">
-        <v>407.310524007893</v>
+        <v>-22.84</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -703,19 +700,19 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>26.13</v>
+        <v>34.23</v>
       </c>
       <c r="G7" t="n">
         <v>8</v>
       </c>
       <c r="H7" t="n">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
       <c r="I7" t="n">
-        <v>-18.13</v>
+        <v>-26.23</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -745,19 +742,19 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>411.54</v>
+        <v>173.87</v>
       </c>
       <c r="F8" t="n">
-        <v>28.19</v>
+        <v>51.29</v>
       </c>
       <c r="G8" t="n">
         <v>24</v>
       </c>
       <c r="H8" t="n">
-        <v>0.85</v>
+        <v>0.47</v>
       </c>
       <c r="I8" t="n">
-        <v>-4.190000000000001</v>
+        <v>-27.29</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -787,22 +784,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>785.55</v>
+        <v>493.23</v>
       </c>
       <c r="F9" t="n">
-        <v>8.81</v>
+        <v>16.42</v>
       </c>
       <c r="G9" t="n">
         <v>32</v>
       </c>
       <c r="H9" t="n">
-        <v>3.63</v>
+        <v>1.95</v>
       </c>
       <c r="I9" t="n">
-        <v>23.19</v>
+        <v>15.58</v>
       </c>
       <c r="J9" t="n">
-        <v>912.6602828327121</v>
+        <v>1135.288165548099</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -832,10 +829,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>212.35</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>15.78</v>
+        <v>32.63</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -844,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-15.78</v>
+        <v>-32.63</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -874,10 +871,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>8.77</v>
+        <v>17</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -886,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-8.77</v>
+        <v>-17</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -916,22 +913,19 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3771.39</v>
+        <v>1706.15</v>
       </c>
       <c r="F12" t="n">
-        <v>8.73</v>
+        <v>618.01</v>
       </c>
       <c r="G12" t="n">
-        <v>46</v>
+        <v>270</v>
       </c>
       <c r="H12" t="n">
-        <v>5.27</v>
+        <v>0.44</v>
       </c>
       <c r="I12" t="n">
-        <v>37.27</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3975.676340714755</v>
+        <v>-348.01</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -961,10 +955,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F13" t="n">
-        <v>23.94</v>
+        <v>32.76</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -973,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-23.94</v>
+        <v>-32.76</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1003,19 +997,19 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>429.26</v>
+        <v>181.35</v>
       </c>
       <c r="F14" t="n">
-        <v>13.36</v>
+        <v>19.48</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="I14" t="n">
-        <v>-13.36</v>
+        <v>-3.48</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1045,22 +1039,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2439.51</v>
+        <v>1531.73</v>
       </c>
       <c r="F15" t="n">
-        <v>13.51</v>
+        <v>13.67</v>
       </c>
       <c r="G15" t="n">
         <v>76.40000000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>5.66</v>
+        <v>5.59</v>
       </c>
       <c r="I15" t="n">
-        <v>62.89000000000001</v>
+        <v>62.73</v>
       </c>
       <c r="J15" t="n">
-        <v>2784.226071037054</v>
+        <v>4116.858929706817</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1090,22 +1084,22 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2635.65</v>
+        <v>1538.01</v>
       </c>
       <c r="F16" t="n">
-        <v>14.75</v>
+        <v>14.77</v>
       </c>
       <c r="G16" t="n">
         <v>68</v>
       </c>
       <c r="H16" t="n">
-        <v>4.61</v>
+        <v>4.6</v>
       </c>
       <c r="I16" t="n">
-        <v>53.25</v>
+        <v>53.23</v>
       </c>
       <c r="J16" t="n">
-        <v>2927.526781407586</v>
+        <v>3731.640048275051</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1135,19 +1129,19 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F17" t="n">
-        <v>26.13</v>
+        <v>39.4</v>
       </c>
       <c r="G17" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="H17" t="n">
-        <v>0.31</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>-18.13</v>
+        <v>-7.399999999999999</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1177,23 +1171,200 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>289.4</v>
+        <v>122.27</v>
       </c>
       <c r="F18" t="n">
-        <v>19.68</v>
+        <v>31.46</v>
       </c>
       <c r="G18" t="n">
+        <v>24</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-7.460000000000001</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>act_406219475582745</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>120226735943410030</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>🚀 [T]-[Conversão]-[Mx. Val.] - Rapidinha 200k - Gamb</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ABO</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>120</v>
+      </c>
+      <c r="F19" t="n">
+        <v>40.07000000000001</v>
+      </c>
+      <c r="G19" t="n">
+        <v>24</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-16.07000000000001</v>
+      </c>
+      <c r="J19" t="n">
+        <v>989.1275167785236</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>15 adsets ativos</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>act_406219475582745</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>120226735942950030</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>🚀 [T]-[Conversão]-[Mx. Val.] - Rapidinha 200k - Aberto</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ABO</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>120</v>
+      </c>
+      <c r="F20" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-30.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>339.2393736017897</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>15 adsets ativos</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>act_406219475582745</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>120226735942940030</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>🚀 [T]-[Conversão]-[Mx. Val.] - Rapidinha 200k - Musica</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ABO</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>120</v>
+      </c>
+      <c r="F21" t="n">
+        <v>46.91</v>
+      </c>
+      <c r="G21" t="n">
         <v>16</v>
       </c>
-      <c r="H18" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="I18" t="n">
-        <v>-3.68</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>N/A</t>
+      <c r="H21" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-30.91</v>
+      </c>
+      <c r="J21" t="n">
+        <v>610.815966089721</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>15 adsets ativos</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>act_406219475582745</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>120226735942930030</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>🚀 [T]-[Conversão]-[Mx. Val.] - Rapidinha 200k - Carros</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ABO</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>120</v>
+      </c>
+      <c r="F22" t="n">
+        <v>40.57</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-40.57</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>15 adsets ativos</t>
         </is>
       </c>
     </row>

--- a/campanhas_lucro.xlsx
+++ b/campanhas_lucro.xlsx
@@ -490,19 +490,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>164.99</v>
       </c>
       <c r="F2" t="n">
-        <v>23.36</v>
+        <v>31.2</v>
       </c>
       <c r="G2" t="n">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="H2" t="n">
-        <v>0.68</v>
+        <v>2.18</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.359999999999999</v>
+        <v>36.8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>301.2173417159216</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -535,16 +538,19 @@
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>24.91</v>
+        <v>33.87</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4</v>
+        <v>1.48</v>
       </c>
       <c r="I3" t="n">
-        <v>-14.91</v>
+        <v>16.13</v>
+      </c>
+      <c r="J3" t="n">
+        <v>159.7105168988537</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -577,16 +583,19 @@
         <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>27.65</v>
+        <v>35.31</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="I4" t="n">
-        <v>-27.65</v>
+        <v>20.69</v>
+      </c>
+      <c r="J4" t="n">
+        <v>176.5908614158266</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -616,19 +625,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>255.42</v>
       </c>
       <c r="F5" t="n">
-        <v>22.5</v>
+        <v>27.65</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>-22.5</v>
+        <v>88.34999999999999</v>
+      </c>
+      <c r="J5" t="n">
+        <v>582.4766750163498</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -658,19 +670,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>172.08</v>
+        <v>460.08</v>
       </c>
       <c r="F6" t="n">
-        <v>38.84</v>
+        <v>64.64</v>
       </c>
       <c r="G6" t="n">
-        <v>16</v>
+        <v>331.6</v>
       </c>
       <c r="H6" t="n">
-        <v>0.41</v>
+        <v>5.13</v>
       </c>
       <c r="I6" t="n">
-        <v>-22.84</v>
+        <v>266.96</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1448.320520230501</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -700,19 +715,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>206.45</v>
       </c>
       <c r="F7" t="n">
-        <v>34.23</v>
+        <v>35.85</v>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="H7" t="n">
-        <v>0.23</v>
+        <v>2.68</v>
       </c>
       <c r="I7" t="n">
-        <v>-26.23</v>
+        <v>60.15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>429.115070766649</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -742,19 +760,19 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>173.87</v>
+        <v>139.09</v>
       </c>
       <c r="F8" t="n">
-        <v>51.29</v>
+        <v>62.34</v>
       </c>
       <c r="G8" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H8" t="n">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
       <c r="I8" t="n">
-        <v>-27.29</v>
+        <v>-30.34</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -784,22 +802,19 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>493.23</v>
+        <v>908.22</v>
       </c>
       <c r="F9" t="n">
-        <v>16.42</v>
+        <v>327.55</v>
       </c>
       <c r="G9" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="H9" t="n">
-        <v>1.95</v>
+        <v>0.2</v>
       </c>
       <c r="I9" t="n">
-        <v>15.58</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1135.288165548099</v>
+        <v>-262.55</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -832,7 +847,7 @@
         <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>32.63</v>
+        <v>38.99</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -841,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-32.63</v>
+        <v>-38.99</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -874,16 +889,16 @@
         <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>17</v>
+        <v>17.28</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="I11" t="n">
-        <v>-17</v>
+        <v>-1.280000000000001</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -913,19 +928,19 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1706.15</v>
+        <v>1364.92</v>
       </c>
       <c r="F12" t="n">
-        <v>618.01</v>
+        <v>910.2</v>
       </c>
       <c r="G12" t="n">
-        <v>270</v>
+        <v>632.8</v>
       </c>
       <c r="H12" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="I12" t="n">
-        <v>-348.01</v>
+        <v>-277.4000000000001</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -955,19 +970,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100</v>
+        <v>110.38</v>
       </c>
       <c r="F13" t="n">
-        <v>32.76</v>
+        <v>35.4</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="I13" t="n">
-        <v>-32.76</v>
+        <v>4.600000000000001</v>
+      </c>
+      <c r="J13" t="n">
+        <v>127.4084177144902</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -997,19 +1015,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>181.35</v>
+        <v>195.57</v>
       </c>
       <c r="F14" t="n">
-        <v>19.48</v>
+        <v>26.14</v>
       </c>
       <c r="G14" t="n">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="H14" t="n">
-        <v>0.82</v>
+        <v>2.14</v>
       </c>
       <c r="I14" t="n">
-        <v>-3.48</v>
+        <v>29.86</v>
+      </c>
+      <c r="J14" t="n">
+        <v>306.106641946669</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1039,22 +1060,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1531.73</v>
+        <v>4236.97</v>
       </c>
       <c r="F15" t="n">
-        <v>13.67</v>
+        <v>76.26000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>76.40000000000001</v>
+        <v>224.4</v>
       </c>
       <c r="H15" t="n">
-        <v>5.59</v>
+        <v>2.94</v>
       </c>
       <c r="I15" t="n">
-        <v>62.73</v>
+        <v>148.14</v>
       </c>
       <c r="J15" t="n">
-        <v>4116.858929706817</v>
+        <v>4785.359087005343</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1084,22 +1105,22 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1538.01</v>
+        <v>3882.51</v>
       </c>
       <c r="F16" t="n">
-        <v>14.77</v>
+        <v>60.18</v>
       </c>
       <c r="G16" t="n">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="H16" t="n">
-        <v>4.6</v>
+        <v>2.73</v>
       </c>
       <c r="I16" t="n">
-        <v>53.23</v>
+        <v>103.82</v>
       </c>
       <c r="J16" t="n">
-        <v>3731.640048275051</v>
+        <v>4266.833984156168</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1132,16 +1153,16 @@
         <v>100</v>
       </c>
       <c r="F17" t="n">
-        <v>39.4</v>
+        <v>42.73</v>
       </c>
       <c r="G17" t="n">
         <v>32</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="I17" t="n">
-        <v>-7.399999999999999</v>
+        <v>-10.73</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1171,19 +1192,22 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>122.27</v>
+        <v>135.45</v>
       </c>
       <c r="F18" t="n">
-        <v>31.46</v>
+        <v>35.99</v>
       </c>
       <c r="G18" t="n">
-        <v>24</v>
+        <v>41.4</v>
       </c>
       <c r="H18" t="n">
-        <v>0.76</v>
+        <v>1.15</v>
       </c>
       <c r="I18" t="n">
-        <v>-7.460000000000001</v>
+        <v>5.409999999999997</v>
+      </c>
+      <c r="J18" t="n">
+        <v>155.4768999642156</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1213,22 +1237,19 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>120</v>
+        <v>813.6900000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>40.07000000000001</v>
+        <v>92.38999999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
       <c r="I19" t="n">
-        <v>-16.07000000000001</v>
-      </c>
-      <c r="J19" t="n">
-        <v>989.1275167785236</v>
+        <v>-52.38999999999999</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1258,22 +1279,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>120</v>
+        <v>293.78</v>
       </c>
       <c r="F20" t="n">
-        <v>38.5</v>
+        <v>62.67</v>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H20" t="n">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
       <c r="I20" t="n">
-        <v>-30.5</v>
+        <v>-38.67</v>
       </c>
       <c r="J20" t="n">
-        <v>339.2393736017897</v>
+        <v>385.78</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1303,22 +1324,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>120</v>
+        <v>511.04</v>
       </c>
       <c r="F21" t="n">
-        <v>46.91</v>
+        <v>90.78</v>
       </c>
       <c r="G21" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="H21" t="n">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="I21" t="n">
-        <v>-30.91</v>
+        <v>-54.78</v>
       </c>
       <c r="J21" t="n">
-        <v>610.815966089721</v>
+        <v>603.04</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1351,7 +1372,7 @@
         <v>120</v>
       </c>
       <c r="F22" t="n">
-        <v>40.57</v>
+        <v>48.89</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1360,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-40.57</v>
+        <v>-48.89</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
